--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABD/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABD/20/seed5/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>6.158399999999996</v>
+        <v>5.977999999999993</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -499,7 +499,7 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>5.325800000000004</v>
+        <v>5.105100000000006</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
@@ -539,7 +539,7 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.848799999999996</v>
+        <v>-7.963799999999993</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -550,13 +550,13 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>5.837799999999993</v>
+        <v>5.733199999999993</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.042799999999994</v>
+        <v>-7.26209999999999</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -567,13 +567,13 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.730699999999998</v>
+        <v>5.617399999999996</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.515300000000001</v>
+        <v>-7.497799999999996</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.81240000000001</v>
+        <v>-21.79700000000001</v>
       </c>
       <c r="B11" t="n">
         <v>6.01</v>
@@ -632,10 +632,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.68850000000001</v>
+        <v>-22.69400000000001</v>
       </c>
       <c r="B12" t="n">
-        <v>5.2299</v>
+        <v>5.154500000000001</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -669,7 +669,7 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>8.8657</v>
+        <v>8.871100000000002</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.48130000000002</v>
+        <v>-21.44860000000002</v>
       </c>
       <c r="B15" t="n">
         <v>5.53</v>
@@ -760,7 +760,7 @@
         <v>-14.32</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.493699999999992</v>
+        <v>-8.58649999999999</v>
       </c>
       <c r="E19" t="n">
         <v>13.12</v>
@@ -794,7 +794,7 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.724199999999999</v>
+        <v>-7.702200000000002</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>5.664300000000001</v>
+        <v>5.538300000000001</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -845,7 +845,7 @@
         <v>-12.7</v>
       </c>
       <c r="D24" t="n">
-        <v>-8.000699999999993</v>
+        <v>-7.566599999999998</v>
       </c>
       <c r="E24" t="n">
         <v>12.16</v>
@@ -862,7 +862,7 @@
         <v>-14.32</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.975999999999994</v>
+        <v>-7.910599999999991</v>
       </c>
       <c r="E25" t="n">
         <v>15.03</v>
